--- a/Calculs/PH2/DataBase_PH2_FileB_V1.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileB_V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{183F20F1-8883-48E2-A6AE-32C242FA84CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A166E0F-3E67-4B46-824B-E1CADEFEEA6D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D8E4E-25A9-4211-9EEF-51CC0DB69EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38940" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="220" yWindow="350" windowWidth="19310" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -745,10 +745,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1068,14 +1064,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W22" sqref="W2:W22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1161,7 +1157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1250,7 +1246,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1339,7 +1335,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1428,7 +1424,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1496,15 +1492,15 @@
         <v>12.986880000000001</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>42.754560000000005</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>12.986880000000001</v>
+        <v>55.741440000000004</v>
       </c>
       <c r="Z5" s="4">
         <v>72.960000000000008</v>
@@ -1517,7 +1513,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1605,7 +1601,7 @@
       </c>
       <c r="AL6" s="2"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1694,7 +1690,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1782,7 +1778,7 @@
       </c>
       <c r="AL8" s="2"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1871,7 +1867,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1960,7 +1956,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2048,7 +2044,7 @@
       </c>
       <c r="AL11" s="2"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2137,7 +2133,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2226,7 +2222,7 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2315,7 +2311,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2403,7 +2399,7 @@
       </c>
       <c r="AL15" s="2"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2491,7 +2487,7 @@
       </c>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2579,7 +2575,7 @@
       </c>
       <c r="AL17" s="2"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2667,7 +2663,7 @@
       </c>
       <c r="AL18" s="2"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2755,7 +2751,7 @@
       </c>
       <c r="AL19" s="2"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2843,7 +2839,7 @@
       </c>
       <c r="AL20" s="2"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2930,7 +2926,7 @@
         <v>58.675199999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3017,7 +3013,7 @@
         <v>134.464</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3104,7 +3100,7 @@
         <v>58.675199999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3191,7 +3187,7 @@
         <v>19.558399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3278,7 +3274,7 @@
         <v>16.808</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3365,7 +3361,7 @@
         <v>19.558399999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3452,7 +3448,7 @@
         <v>50.423999999999992</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -3539,7 +3535,7 @@
         <v>44.006399999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3626,7 +3622,7 @@
         <v>67.231999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -3713,7 +3709,7 @@
         <v>39.116799999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3800,7 +3796,7 @@
         <v>50.423999999999992</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>34.227200000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3974,7 +3970,7 @@
         <v>19.558399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -4061,7 +4057,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4148,7 +4144,7 @@
         <v>126.06</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4235,7 +4231,7 @@
         <v>63.564800000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -4322,7 +4318,7 @@
         <v>138.666</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4409,7 +4405,7 @@
         <v>53.785600000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -4496,7 +4492,7 @@
         <v>117.65600000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4583,7 +4579,7 @@
         <v>48.896000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -4670,7 +4666,7 @@
         <v>105.04999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -4757,7 +4753,7 @@
         <v>60.631039999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -4844,7 +4840,7 @@
         <v>142.86799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4931,7 +4927,7 @@
         <v>73.343999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
